--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -490,6 +490,28 @@
     <t>髙田</t>
     <rPh sb="0" eb="2">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmpForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 社員一覧画面で使用するformオブジェクトを返す。</t>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1082,9 +1104,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,6 +1121,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4554,67 +4576,67 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="57" t="s">
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57" t="s">
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57" t="s">
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57" t="s">
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.4">
@@ -4639,13 +4661,13 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
-      <c r="P6" s="61" t="s">
+      <c r="P6" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="64" t="s">
         <v>26</v>
       </c>
@@ -4704,13 +4726,13 @@
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="61" t="s">
+      <c r="P7" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="64" t="s">
         <v>35</v>
       </c>
@@ -4769,13 +4791,13 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="64" t="s">
         <v>46</v>
       </c>
@@ -5647,6 +5669,7 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="J8:O8"/>
@@ -5658,6 +5681,8 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5672,12 +5697,6 @@
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="AL8:AT8"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="P6:T6"/>
@@ -5691,6 +5710,9 @@
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5:AT5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5705,7 +5727,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -5936,7 +5958,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5955,7 +5977,7 @@
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -5994,7 +6016,7 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -6049,7 +6071,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6119,44 +6141,42 @@
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="4"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6184,202 +6204,233 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="7"/>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="13"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
@@ -6423,7 +6474,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6493,179 +6544,409 @@
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="4"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="4"/>
+      <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="13"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="4"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="7"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="7"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="7"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="7"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="7"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="7"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
@@ -473,10 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KK03001_Controller</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. 全社員のリストをDBから取得する。</t>
     <rPh sb="3" eb="4">
       <t>ゼン</t>
@@ -502,10 +498,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmpForm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. 社員一覧画面で使用するformオブジェクトを返す。</t>
     <rPh sb="3" eb="5">
       <t>シャイン</t>
@@ -513,6 +505,14 @@
     <rPh sb="5" eb="7">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK03001Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK03001Form</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,13 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,67 +987,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,10 +1050,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,9 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,23 +1472,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1509,21 +1509,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1544,21 +1544,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1649,25 +1649,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1688,21 +1688,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1723,25 +1723,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1762,21 +1762,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1900,29 +1900,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="16" t="s">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1943,29 +1943,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21">
         <v>44113</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15">
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21">
         <v>44117</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2293,6 +2293,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2300,12 +2306,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2331,104 +2331,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2529,682 +2529,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="45"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="46">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
         <v>44113</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="35" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="41"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="33"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="51"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3280,62 +3280,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3352,22 +3312,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3394,104 +3394,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4375,105 +4375,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.4">
@@ -4576,98 +4576,98 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="57" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="63" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63" t="s">
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63" t="s">
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63" t="s">
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="28">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="60" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="64" t="s">
         <v>26</v>
       </c>
@@ -4680,59 +4680,59 @@
       <c r="Z6" s="64"/>
       <c r="AA6" s="64"/>
       <c r="AB6" s="64"/>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28" t="s">
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="28">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="60" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="64" t="s">
         <v>35</v>
       </c>
@@ -4745,59 +4745,59 @@
       <c r="Z7" s="64"/>
       <c r="AA7" s="64"/>
       <c r="AB7" s="64"/>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28" t="s">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="28">
+      <c r="B8" s="45">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="60" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="64" t="s">
         <v>46</v>
       </c>
@@ -4810,28 +4810,28 @@
       <c r="Z8" s="64"/>
       <c r="AA8" s="64"/>
       <c r="AB8" s="64"/>
-      <c r="AC8" s="28" t="s">
+      <c r="AC8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28" t="s">
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
@@ -5669,18 +5669,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5:AT5"/>
     <mergeCell ref="AL6:AT6"/>
     <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="AD1:AG1"/>
@@ -5697,22 +5701,18 @@
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5743,104 +5743,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -5880,7 +5880,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5958,7 +5958,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -6071,7 +6071,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6330,7 +6330,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6987,104 +6987,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -398,68 +398,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>forwardWorkReport</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２. 戻り値（勤務報告書画面のパス）を返し、勤務報告書画面を表示する。</t>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="22" eb="27">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 社員名リンクに該当する社員の社員番号をModelに追加する。</t>
-    <rPh sb="3" eb="5">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -513,6 +456,23 @@
   </si>
   <si>
     <t>KK03001Form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backEmployeeList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 戻るボタン押下時、月別一覧画面へリダイレクトする。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="18">
+      <t>ツキベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,7 +935,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,25 +953,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,61 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1081,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,23 +1432,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1509,21 +1469,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1544,21 +1504,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1649,25 +1609,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1688,21 +1648,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1723,25 +1683,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1762,21 +1722,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1900,29 +1860,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1943,29 +1903,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="21">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15">
         <v>44113</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="21">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15">
         <v>44117</v>
       </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2293,12 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2306,6 +2260,12 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2331,104 +2291,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2529,682 +2489,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="28" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="29"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="45"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="30">
+      <c r="B7" s="46">
         <v>1</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49">
         <v>44113</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="39" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="41"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="41"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="37"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="41"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="41"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="37"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="37"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="37"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="48"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="37"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="41"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="37"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="37"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="37"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="41"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="37"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="41"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="37"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="51"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="33"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3280,6 +3240,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B24:D24"/>
@@ -3296,78 +3328,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3394,104 +3354,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4375,105 +4335,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.4">
@@ -4576,98 +4536,98 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="57" t="s">
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57" t="s">
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57" t="s">
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57" t="s">
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="45">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="61" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="64" t="s">
         <v>26</v>
       </c>
@@ -4680,59 +4640,59 @@
       <c r="Z6" s="64"/>
       <c r="AA6" s="64"/>
       <c r="AB6" s="64"/>
-      <c r="AC6" s="45" t="s">
+      <c r="AC6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45" t="s">
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="45">
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="61" t="s">
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="64" t="s">
         <v>35</v>
       </c>
@@ -4745,59 +4705,59 @@
       <c r="Z7" s="64"/>
       <c r="AA7" s="64"/>
       <c r="AB7" s="64"/>
-      <c r="AC7" s="45" t="s">
+      <c r="AC7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45" t="s">
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="45">
+      <c r="B8" s="28">
         <v>3</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="61" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="64" t="s">
         <v>46</v>
       </c>
@@ -4810,28 +4770,28 @@
       <c r="Z8" s="64"/>
       <c r="AA8" s="64"/>
       <c r="AB8" s="64"/>
-      <c r="AC8" s="45" t="s">
+      <c r="AC8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45" t="s">
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
@@ -5669,6 +5629,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AL8:AT8"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="P6:T6"/>
@@ -5685,34 +5673,6 @@
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5727,7 +5687,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -5743,104 +5703,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -5880,7 +5840,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5958,7 +5918,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5977,7 +5937,7 @@
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -6016,7 +5976,7 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -6071,7 +6031,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6330,7 +6290,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6402,7 +6362,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6591,7 +6551,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -6610,7 +6570,7 @@
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -6649,7 +6609,7 @@
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -6704,7 +6664,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -6774,44 +6734,42 @@
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="7"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="4"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="7"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -6839,14 +6797,14 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="7"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -6874,79 +6832,9 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="7"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="7"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="4"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6965,7 +6853,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6987,104 +6875,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="52" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="22" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="str">
+      <c r="W1" s="34"/>
+      <c r="X1" s="55" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="24">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="56">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="22" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23" t="str">
+      <c r="W2" s="34"/>
+      <c r="X2" s="55" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="56">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -356,44 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Model, String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3. 戻り値（社員一覧画面のパス）を返し、社員一覧画面を表示する。</t>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>empImput</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,16 +365,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. Viewに渡すために1.のリストをModelに追加する。</t>
-    <rPh sb="8" eb="9">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,6 +424,176 @@
     </rPh>
     <rPh sb="12" eb="18">
       <t>ツキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel出力</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin-export</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model, KK03001Form, KK02001Form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. Viewに渡すために1.のリストをFormに追加する。</t>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. ヘッダ用情報をModelに追加する。</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 戻り値（社員一覧画面のパス）を返し、社員一覧画面を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadZip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HttpEntity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ログインユーザの名前を取得する。</t>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. チェックボックスで選択したユーザの勤務報告書をzipでダウンロードする。</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2. チェックボックスが1つも選択されていない場合</t>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1. チェックボックスが1つ以上選択されている場合</t>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2-1. 自画面遷移し、エラーメッセージを表示する。</t>
+    <rPh sb="7" eb="12">
+      <t>ジガメンセンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1-1. zip作成メソッド(createZipService.createZipFile)を呼び出し、ダウンロードダイアログを表示する。</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK03001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadZipメソッドの追加</t>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1064,6 +1192,18 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,20 +1213,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1878,7 +2015,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -1921,7 +2058,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15">
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -2384,7 +2521,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="56">
         <f>表紙!U17</f>
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
@@ -2575,14 +2712,20 @@
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27">
+        <v>44180</v>
+      </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -2602,7 +2745,9 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
-      <c r="AC8" s="35"/>
+      <c r="AC8" s="35" t="s">
+        <v>77</v>
+      </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="6"/>
@@ -3447,7 +3592,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="56">
         <f>表紙!U17</f>
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
@@ -4429,7 +4574,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="56">
         <f>表紙!U17</f>
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
@@ -4536,67 +4681,67 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="57" t="s">
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="63" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63" t="s">
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63" t="s">
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63" t="s">
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.4">
@@ -4621,25 +4766,25 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="64" t="s">
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64" t="s">
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
       <c r="AC6" s="28" t="s">
         <v>26</v>
       </c>
@@ -4686,25 +4831,25 @@
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="64" t="s">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64" t="s">
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
       <c r="AC7" s="28" t="s">
         <v>26</v>
       </c>
@@ -4751,25 +4896,25 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="64" t="s">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64" t="s">
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
       <c r="AC8" s="28" t="s">
         <v>26</v>
       </c>
@@ -4795,6 +4940,68 @@
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="28">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.4">
@@ -5628,8 +5835,7 @@
       <c r="AU26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AC5:AK5"/>
+  <mergeCells count="52">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="J8:O8"/>
@@ -5641,8 +5847,6 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5657,6 +5861,15 @@
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL9:AT9"/>
     <mergeCell ref="AL8:AT8"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="P6:T6"/>
@@ -5670,13 +5883,15 @@
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:X8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:X9">
       <formula1>"text,textarea,password,button,link,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5687,7 +5902,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -5796,7 +6011,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="56">
         <f>表紙!U17</f>
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
@@ -5840,7 +6055,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5918,7 +6133,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5937,7 +6152,7 @@
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -5976,7 +6191,7 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -6031,7 +6246,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6177,7 +6392,7 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6196,7 +6411,7 @@
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -6290,7 +6505,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6362,7 +6577,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6434,7 +6649,7 @@
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6504,195 +6719,195 @@
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="7"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="4"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="7"/>
+      <c r="C26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="13"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="7"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="4"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="7"/>
     </row>
@@ -6734,42 +6949,44 @@
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="7"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -6797,14 +7014,14 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="7"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -6832,9 +7049,593 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="7"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="7"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="13"/>
+      <c r="U33" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="7"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="7"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="7"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="7"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="7"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="7"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="7"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="7"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="7"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="7"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="7"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="7"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="7"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6968,7 +7769,7 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="56">
         <f>表紙!U17</f>
-        <v>44117</v>
+        <v>44180</v>
       </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK03001_社員一覧画面.xlsx
@@ -564,22 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-1-1. zip作成メソッド(createZipService.createZipFile)を呼び出し、ダウンロードダイアログを表示する。</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KK03001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,6 +578,19 @@
     <t>downloadZipメソッドの追加</t>
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1-1. 「createZipService.createZipFile」を呼び出し、ダウンロードダイアログを表示する。</t>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1063,13 +1060,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,67 +1081,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,20 +1144,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,17 +1213,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,23 +1566,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1606,21 +1603,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1641,21 +1638,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1746,25 +1743,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1785,21 +1782,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1820,25 +1817,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1859,21 +1856,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2000,26 +1997,26 @@
       <c r="J16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="16" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="16" t="s">
+      <c r="U16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2040,29 +2037,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24">
         <v>44113</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15">
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="24">
         <v>44180</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2390,6 +2387,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2397,12 +2400,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2428,104 +2425,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44180</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2626,690 +2623,690 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="45"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="32"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="46">
+      <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36">
         <v>44113</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="35" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="44"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="29">
+      <c r="B8" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47">
         <v>44180</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="35" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="44"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="37"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="44"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="44"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="37"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="44"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="37"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="44"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="37"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="44"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="37"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="44"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="37"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="44"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="44"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="51"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="44"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="37"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="44"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="37"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="37"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="44"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="33"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="54"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3385,62 +3382,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3457,22 +3414,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3499,104 +3496,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44180</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4480,105 +4477,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44180</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.4">
@@ -4681,327 +4678,327 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="61" t="s">
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64" t="s">
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64" t="s">
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64" t="s">
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="28">
+      <c r="B6" s="48">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="57" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60" t="s">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60" t="s">
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="28" t="s">
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28" t="s">
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="28">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="57" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60" t="s">
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="28" t="s">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28" t="s">
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="28">
+      <c r="B8" s="48">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="57" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60" t="s">
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60" t="s">
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="28" t="s">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28" t="s">
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="28">
+      <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="57" t="s">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60" t="s">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60" t="s">
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="28" t="s">
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28" t="s">
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.4">
@@ -5836,37 +5833,11 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AK9"/>
     <mergeCell ref="AL9:AT9"/>
@@ -5883,11 +5854,37 @@
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5918,104 +5915,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44180</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -7115,19 +7112,19 @@
         <v>21</v>
       </c>
       <c r="T33" s="13"/>
-      <c r="U33" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="67"/>
+      <c r="U33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="16"/>
       <c r="AF33" s="6"/>
       <c r="AG33" s="7"/>
     </row>
@@ -7358,7 +7355,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -7466,20 +7463,20 @@
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -7676,104 +7673,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="34" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="55" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="56">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44113</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="22" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>社員一覧</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="34" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="56">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44180</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
